--- a/pruebas_activas.xlsx
+++ b/pruebas_activas.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\APP DE GESTION DEPORTIVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5338CD6-4364-4F9D-ABFC-7C13A120E951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76209FFD-A765-4013-8424-A1296316A92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>NombrePrueba</t>
   </si>
@@ -52,13 +65,28 @@
     <t>PesoMuerto_RM</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>N/A</t>
+    <t xml:space="preserve">100 metros </t>
+  </si>
+  <si>
+    <t>400 metros</t>
+  </si>
+  <si>
+    <t>400 Mts</t>
+  </si>
+  <si>
+    <t>100 Mts</t>
+  </si>
+  <si>
+    <t>Course Navette</t>
+  </si>
+  <si>
+    <t>Dinamometria</t>
+  </si>
+  <si>
+    <t>Dinamometria Der.</t>
+  </si>
+  <si>
+    <t>Dinamometria Izq.</t>
   </si>
 </sst>
 </file>
@@ -77,6 +105,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -421,14 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -472,17 +503,61 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
